--- a/Lab 10 - Enzyme/enzyme_kinetics_data.xlsx
+++ b/Lab 10 - Enzyme/enzyme_kinetics_data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\brada\Documents\UofT\Year 1\Chm151\labs\lab 9\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://utoronto-my.sharepoint.com/personal/samihat_rahman_mail_utoronto_ca/Documents/Desktop/Teaching/2024-25 Summer CTFP/Experiment 10 - Enzyme Kinetics/Empty Templates/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09ED113A-7857-48AC-9D9D-0197311CFD88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="10" documentId="11_F25DC773A252ABDACC1048B8519A49685ADE58ED" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{16C63D9D-3028-458F-96FB-34F348075CB9}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="705" yWindow="3915" windowWidth="21600" windowHeight="11835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,8 +37,16 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -66,8 +74,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -348,83 +360,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:B1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.6640625" customWidth="1"/>
-    <col min="2" max="2" width="20.6640625" customWidth="1"/>
+    <col min="1" max="1" width="19.5703125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="20.5703125" style="1" customWidth="1"/>
+    <col min="3" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <v>4.4999999999999998E-2</v>
-      </c>
-      <c r="B2">
-        <v>1.18235707296195E-4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>0.09</v>
-      </c>
-      <c r="B3">
-        <v>1.77676770117303E-4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4">
-        <v>0.13500000000000001</v>
-      </c>
-      <c r="B4">
-        <v>2.25491294165563E-4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5">
-        <v>0.18</v>
-      </c>
-      <c r="B5">
-        <v>2.5530640843988701E-4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6">
-        <v>0.22500000000000001</v>
-      </c>
-      <c r="B6">
-        <v>2.8451904341958298E-4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7">
-        <v>0.45</v>
-      </c>
-      <c r="B7">
-        <v>3.3984263845573699E-4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8">
-        <v>0.9</v>
-      </c>
-      <c r="B8">
-        <v>4.0443757920203698E-4</v>
-      </c>
-    </row>
   </sheetData>
+  <sheetProtection algorithmName="SHA-512" hashValue="nOni5+j/rR/ZFOVQOB6O775/skbCuAKR1cgpvpkizi+XJnDOkSXcTQoiwV+Oyi3gZFpbEfM1D1lItjFKWoYfxg==" saltValue="OSnWpyyYWlGXKhhivCHwkQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>